--- a/Input File/2010-11 - modified by Roopesh - 14-Dec.xlsx
+++ b/Input File/2010-11 - modified by Roopesh - 14-Dec.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet4" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="211">
   <si>
     <t>Total Constituency Population</t>
   </si>
@@ -616,12 +616,6 @@
     <t>Total Persondays employment</t>
   </si>
   <si>
-    <t>% Households Employed</t>
-  </si>
-  <si>
-    <t>Avg. Persondays of Employment</t>
-  </si>
-  <si>
     <t>% Money spent on wages</t>
   </si>
   <si>
@@ -641,6 +635,19 @@
   </si>
   <si>
     <t>MLAConstituency</t>
+  </si>
+  <si>
+    <t>% Households Employed (s1)</t>
+  </si>
+  <si>
+    <t>Avg. Persondays of Employment (s1)</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>The above data shows that in Hoskote constituency, % Households employed in 2010-11 is lower than in 2009-10.
+Is this government data correct? Can this be brought to the notice of the government?</t>
   </si>
 </sst>
 </file>
@@ -982,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z160"/>
+  <dimension ref="A1:AA160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,14 +1016,15 @@
     <col min="21" max="22" width="15.42578125" customWidth="1"/>
     <col min="23" max="23" width="19.42578125" customWidth="1"/>
     <col min="24" max="24" width="14" customWidth="1"/>
+    <col min="27" max="27" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1031,7 +1039,7 @@
         <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>191</v>
@@ -1040,7 +1048,7 @@
         <v>194</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>192</v>
@@ -1049,7 +1057,7 @@
         <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>193</v>
@@ -1058,7 +1066,7 @@
         <v>196</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>187</v>
@@ -1067,7 +1075,7 @@
         <v>188</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>185</v>
@@ -1076,7 +1084,7 @@
         <v>186</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>189</v>
@@ -1090,8 +1098,11 @@
       <c r="Z1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>1965</v>
       </c>
       <c r="W2">
-        <v>633.11200000000008</v>
+        <v>633</v>
       </c>
       <c r="X2">
         <v>1333</v>
@@ -1149,8 +1160,11 @@
       <c r="Z2">
         <v>25087</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1211,7 @@
         <v>1584</v>
       </c>
       <c r="W3">
-        <v>439.11975000000007</v>
+        <v>439</v>
       </c>
       <c r="X3">
         <v>1050</v>
@@ -1209,7 +1223,7 @@
         <v>7856</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1270,7 @@
         <v>1664</v>
       </c>
       <c r="W4">
-        <v>518.90790000000004</v>
+        <v>519</v>
       </c>
       <c r="X4">
         <v>1210</v>
@@ -1268,7 +1282,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1329,7 @@
         <v>748</v>
       </c>
       <c r="W5">
-        <v>419.8312499999999</v>
+        <v>420</v>
       </c>
       <c r="X5">
         <v>509</v>
@@ -1327,7 +1341,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>2062</v>
       </c>
       <c r="W6">
-        <v>504.13299999999998</v>
+        <v>504</v>
       </c>
       <c r="X6">
         <v>1427</v>
@@ -1386,7 +1400,7 @@
         <v>9761</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1447,7 @@
         <v>910</v>
       </c>
       <c r="W7">
-        <v>89.277519999999981</v>
+        <v>89</v>
       </c>
       <c r="X7">
         <v>526</v>
@@ -1445,7 +1459,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1492,7 +1506,7 @@
         <v>212</v>
       </c>
       <c r="W8">
-        <v>10.6624</v>
+        <v>11</v>
       </c>
       <c r="X8">
         <v>111</v>
@@ -1504,7 +1518,7 @@
         <v>5179</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>1219</v>
       </c>
       <c r="W9">
-        <v>423.77885000000003</v>
+        <v>424</v>
       </c>
       <c r="X9">
         <v>621</v>
@@ -1563,7 +1577,7 @@
         <v>20629</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1624,7 @@
         <v>1432</v>
       </c>
       <c r="W10">
-        <v>536.81010000000003</v>
+        <v>537</v>
       </c>
       <c r="X10">
         <v>769</v>
@@ -1622,7 +1636,7 @@
         <v>7658</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1669,7 +1683,7 @@
         <v>1354</v>
       </c>
       <c r="W11">
-        <v>140.77800000000002</v>
+        <v>141</v>
       </c>
       <c r="X11">
         <v>879</v>
@@ -1681,7 +1695,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1742,7 @@
         <v>1594</v>
       </c>
       <c r="W12">
-        <v>572.62630000000001</v>
+        <v>573</v>
       </c>
       <c r="X12">
         <v>880</v>
@@ -1740,7 +1754,7 @@
         <v>5430</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1787,7 +1801,7 @@
         <v>1693</v>
       </c>
       <c r="W13">
-        <v>552.54246999999998</v>
+        <v>553</v>
       </c>
       <c r="X13">
         <v>912</v>
@@ -1799,7 +1813,7 @@
         <v>6230</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1846,7 +1860,7 @@
         <v>1300</v>
       </c>
       <c r="W14">
-        <v>824.26548000000003</v>
+        <v>824</v>
       </c>
       <c r="X14">
         <v>733</v>
@@ -1858,7 +1872,7 @@
         <v>15929</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>2175</v>
       </c>
       <c r="W15">
-        <v>661.38971000000004</v>
+        <v>661</v>
       </c>
       <c r="X15">
         <v>1165</v>
@@ -1917,7 +1931,7 @@
         <v>55149</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +1978,7 @@
         <v>1338</v>
       </c>
       <c r="W16">
-        <v>931.74403999999981</v>
+        <v>932</v>
       </c>
       <c r="X16">
         <v>742</v>
@@ -2023,7 +2037,7 @@
         <v>1366</v>
       </c>
       <c r="W17">
-        <v>1040.8419699999999</v>
+        <v>1041</v>
       </c>
       <c r="X17">
         <v>794</v>
@@ -2082,7 +2096,7 @@
         <v>964</v>
       </c>
       <c r="W18">
-        <v>625.0009500000001</v>
+        <v>625</v>
       </c>
       <c r="X18">
         <v>571</v>
@@ -2141,7 +2155,7 @@
         <v>1491</v>
       </c>
       <c r="W19">
-        <v>581.56324999999993</v>
+        <v>582</v>
       </c>
       <c r="X19">
         <v>937</v>
@@ -2200,7 +2214,7 @@
         <v>1602</v>
       </c>
       <c r="W20">
-        <v>691.33799999999997</v>
+        <v>691</v>
       </c>
       <c r="X20">
         <v>976</v>
@@ -2259,7 +2273,7 @@
         <v>1496</v>
       </c>
       <c r="W21">
-        <v>594.97174999999993</v>
+        <v>595</v>
       </c>
       <c r="X21">
         <v>930</v>
@@ -2318,7 +2332,7 @@
         <v>1785</v>
       </c>
       <c r="W22">
-        <v>743.35350000000028</v>
+        <v>743</v>
       </c>
       <c r="X22">
         <v>1001</v>
@@ -2377,7 +2391,7 @@
         <v>2592</v>
       </c>
       <c r="W23">
-        <v>997.32709999999997</v>
+        <v>997</v>
       </c>
       <c r="X23">
         <v>1180</v>
@@ -2436,7 +2450,7 @@
         <v>2124</v>
       </c>
       <c r="W24">
-        <v>955.57145000000003</v>
+        <v>956</v>
       </c>
       <c r="X24">
         <v>1377</v>
@@ -2495,7 +2509,7 @@
         <v>768</v>
       </c>
       <c r="W25">
-        <v>277.91249999999997</v>
+        <v>278</v>
       </c>
       <c r="X25">
         <v>467</v>
@@ -2554,7 +2568,7 @@
         <v>1309</v>
       </c>
       <c r="W26">
-        <v>963.97194000000002</v>
+        <v>964</v>
       </c>
       <c r="X26">
         <v>737</v>
@@ -2613,7 +2627,7 @@
         <v>1070</v>
       </c>
       <c r="W27">
-        <v>781.56100000000004</v>
+        <v>782</v>
       </c>
       <c r="X27">
         <v>598</v>
@@ -2672,7 +2686,7 @@
         <v>672</v>
       </c>
       <c r="W28">
-        <v>512.54525000000001</v>
+        <v>513</v>
       </c>
       <c r="X28">
         <v>395</v>
@@ -2731,7 +2745,7 @@
         <v>350</v>
       </c>
       <c r="W29">
-        <v>524.70635000000004</v>
+        <v>525</v>
       </c>
       <c r="X29">
         <v>212</v>
@@ -2790,7 +2804,7 @@
         <v>1915</v>
       </c>
       <c r="W30">
-        <v>812.49963000000002</v>
+        <v>812</v>
       </c>
       <c r="X30">
         <v>1077</v>
@@ -2849,7 +2863,7 @@
         <v>1002</v>
       </c>
       <c r="W31">
-        <v>1134.2469899999999</v>
+        <v>1134</v>
       </c>
       <c r="X31">
         <v>651</v>
@@ -2908,7 +2922,7 @@
         <v>676</v>
       </c>
       <c r="W32">
-        <v>510.99714999999998</v>
+        <v>511</v>
       </c>
       <c r="X32">
         <v>259</v>
@@ -2967,7 +2981,7 @@
         <v>1019</v>
       </c>
       <c r="W33">
-        <v>470.33533000000006</v>
+        <v>470</v>
       </c>
       <c r="X33">
         <v>719</v>
@@ -3026,7 +3040,7 @@
         <v>1077</v>
       </c>
       <c r="W34">
-        <v>597.24784999999986</v>
+        <v>597</v>
       </c>
       <c r="X34">
         <v>607</v>
@@ -3085,7 +3099,7 @@
         <v>840</v>
       </c>
       <c r="W35">
-        <v>559.22514000000001</v>
+        <v>559</v>
       </c>
       <c r="X35">
         <v>531</v>
@@ -3144,7 +3158,7 @@
         <v>754</v>
       </c>
       <c r="W36">
-        <v>1325.9126100000001</v>
+        <v>1326</v>
       </c>
       <c r="X36">
         <v>481</v>
@@ -3203,7 +3217,7 @@
         <v>789</v>
       </c>
       <c r="W37">
-        <v>540.07628999999997</v>
+        <v>540</v>
       </c>
       <c r="X37">
         <v>588</v>
@@ -3262,7 +3276,7 @@
         <v>1649</v>
       </c>
       <c r="W38">
-        <v>111.45075</v>
+        <v>111</v>
       </c>
       <c r="X38">
         <v>777</v>
@@ -3321,7 +3335,7 @@
         <v>1583</v>
       </c>
       <c r="W39">
-        <v>283.97924999999998</v>
+        <v>284</v>
       </c>
       <c r="X39">
         <v>906</v>
@@ -3380,7 +3394,7 @@
         <v>1371</v>
       </c>
       <c r="W40">
-        <v>433.29924999999992</v>
+        <v>433</v>
       </c>
       <c r="X40">
         <v>966</v>
@@ -3439,7 +3453,7 @@
         <v>1447</v>
       </c>
       <c r="W41">
-        <v>236.31665000000001</v>
+        <v>236</v>
       </c>
       <c r="X41">
         <v>872</v>
@@ -3498,7 +3512,7 @@
         <v>1820</v>
       </c>
       <c r="W42">
-        <v>467.33537000000013</v>
+        <v>467</v>
       </c>
       <c r="X42">
         <v>1243</v>
@@ -3557,7 +3571,7 @@
         <v>1569</v>
       </c>
       <c r="W43">
-        <v>226.70784999999998</v>
+        <v>227</v>
       </c>
       <c r="X43">
         <v>769</v>
@@ -3616,7 +3630,7 @@
         <v>786</v>
       </c>
       <c r="W44">
-        <v>218.87025</v>
+        <v>219</v>
       </c>
       <c r="X44">
         <v>518</v>
@@ -3675,7 +3689,7 @@
         <v>708</v>
       </c>
       <c r="W45">
-        <v>153.08795000000001</v>
+        <v>153</v>
       </c>
       <c r="X45">
         <v>517</v>
@@ -3734,7 +3748,7 @@
         <v>560</v>
       </c>
       <c r="W46">
-        <v>80.308249999999987</v>
+        <v>80</v>
       </c>
       <c r="X46">
         <v>325</v>
@@ -3793,7 +3807,7 @@
         <v>1599</v>
       </c>
       <c r="W47">
-        <v>304.69508000000008</v>
+        <v>305</v>
       </c>
       <c r="X47">
         <v>840</v>
@@ -3852,7 +3866,7 @@
         <v>3176</v>
       </c>
       <c r="W48">
-        <v>191.25360999999998</v>
+        <v>191</v>
       </c>
       <c r="X48">
         <v>2467</v>
@@ -3911,7 +3925,7 @@
         <v>1020</v>
       </c>
       <c r="W49">
-        <v>185.25451999999999</v>
+        <v>185</v>
       </c>
       <c r="X49">
         <v>697</v>
@@ -3970,7 +3984,7 @@
         <v>2128</v>
       </c>
       <c r="W50">
-        <v>429.64454000000006</v>
+        <v>430</v>
       </c>
       <c r="X50">
         <v>1349</v>
@@ -4029,7 +4043,7 @@
         <v>1209</v>
       </c>
       <c r="W51">
-        <v>316.03960000000012</v>
+        <v>316</v>
       </c>
       <c r="X51">
         <v>796</v>
@@ -4088,7 +4102,7 @@
         <v>1057</v>
       </c>
       <c r="W52">
-        <v>682.44914000000006</v>
+        <v>682</v>
       </c>
       <c r="X52">
         <v>792</v>
@@ -4147,7 +4161,7 @@
         <v>838</v>
       </c>
       <c r="W53">
-        <v>675.37662000000023</v>
+        <v>675</v>
       </c>
       <c r="X53">
         <v>503</v>
@@ -4206,7 +4220,7 @@
         <v>539</v>
       </c>
       <c r="W54">
-        <v>360.22747000000004</v>
+        <v>360</v>
       </c>
       <c r="X54">
         <v>341</v>
@@ -4265,7 +4279,7 @@
         <v>497</v>
       </c>
       <c r="W55">
-        <v>377.40900999999997</v>
+        <v>377</v>
       </c>
       <c r="X55">
         <v>312</v>
@@ -4324,7 +4338,7 @@
         <v>585</v>
       </c>
       <c r="W56">
-        <v>522.89870999999994</v>
+        <v>523</v>
       </c>
       <c r="X56">
         <v>344</v>
@@ -4383,7 +4397,7 @@
         <v>1291</v>
       </c>
       <c r="W57">
-        <v>819.67988999999989</v>
+        <v>820</v>
       </c>
       <c r="X57">
         <v>609</v>
@@ -4442,7 +4456,7 @@
         <v>1023</v>
       </c>
       <c r="W58">
-        <v>784.0150000000001</v>
+        <v>784</v>
       </c>
       <c r="X58">
         <v>459</v>
@@ -4501,7 +4515,7 @@
         <v>3162</v>
       </c>
       <c r="W59">
-        <v>731.77625</v>
+        <v>732</v>
       </c>
       <c r="X59">
         <v>1832</v>
@@ -4560,7 +4574,7 @@
         <v>1363</v>
       </c>
       <c r="W60">
-        <v>700.8950000000001</v>
+        <v>701</v>
       </c>
       <c r="X60">
         <v>844</v>
@@ -4619,7 +4633,7 @@
         <v>647</v>
       </c>
       <c r="W61">
-        <v>460.04050000000012</v>
+        <v>460</v>
       </c>
       <c r="X61">
         <v>381</v>
@@ -4678,7 +4692,7 @@
         <v>244</v>
       </c>
       <c r="W62">
-        <v>139.39559</v>
+        <v>139</v>
       </c>
       <c r="X62">
         <v>211</v>
@@ -4737,7 +4751,7 @@
         <v>405</v>
       </c>
       <c r="W63">
-        <v>201.32299</v>
+        <v>201</v>
       </c>
       <c r="X63">
         <v>296</v>
@@ -4796,7 +4810,7 @@
         <v>253</v>
       </c>
       <c r="W64">
-        <v>107.83700999999999</v>
+        <v>108</v>
       </c>
       <c r="X64">
         <v>165</v>
@@ -4855,7 +4869,7 @@
         <v>573</v>
       </c>
       <c r="W65">
-        <v>238.15335999999999</v>
+        <v>238</v>
       </c>
       <c r="X65">
         <v>454</v>
@@ -4914,7 +4928,7 @@
         <v>168</v>
       </c>
       <c r="W66">
-        <v>56.465059999999994</v>
+        <v>56</v>
       </c>
       <c r="X66">
         <v>97</v>
@@ -4973,7 +4987,7 @@
         <v>395</v>
       </c>
       <c r="W67">
-        <v>207.07526999999996</v>
+        <v>207</v>
       </c>
       <c r="X67">
         <v>370</v>
@@ -5032,7 +5046,7 @@
         <v>874</v>
       </c>
       <c r="W68">
-        <v>410.55322999999999</v>
+        <v>411</v>
       </c>
       <c r="X68">
         <v>499</v>
@@ -5091,7 +5105,7 @@
         <v>2207</v>
       </c>
       <c r="W69">
-        <v>1028.2261000000001</v>
+        <v>1028</v>
       </c>
       <c r="X69">
         <v>1387</v>
@@ -5150,7 +5164,7 @@
         <v>2344</v>
       </c>
       <c r="W70">
-        <v>1127.7740900000001</v>
+        <v>1128</v>
       </c>
       <c r="X70">
         <v>1385</v>
@@ -5209,7 +5223,7 @@
         <v>675</v>
       </c>
       <c r="W71">
-        <v>270.92941000000002</v>
+        <v>271</v>
       </c>
       <c r="X71">
         <v>405</v>
@@ -5268,7 +5282,7 @@
         <v>2328</v>
       </c>
       <c r="W72">
-        <v>633.57605000000001</v>
+        <v>634</v>
       </c>
       <c r="X72">
         <v>1303</v>
@@ -5327,7 +5341,7 @@
         <v>1699</v>
       </c>
       <c r="W73">
-        <v>963.63604999999995</v>
+        <v>964</v>
       </c>
       <c r="X73">
         <v>832</v>
@@ -5386,7 +5400,7 @@
         <v>1127</v>
       </c>
       <c r="W74">
-        <v>478.2749</v>
+        <v>478</v>
       </c>
       <c r="X74">
         <v>557</v>
@@ -5445,7 +5459,7 @@
         <v>1498</v>
       </c>
       <c r="W75">
-        <v>757.76430000000028</v>
+        <v>758</v>
       </c>
       <c r="X75">
         <v>823</v>
@@ -5504,7 +5518,7 @@
         <v>1118</v>
       </c>
       <c r="W76">
-        <v>552.84475000000009</v>
+        <v>553</v>
       </c>
       <c r="X76">
         <v>687</v>
@@ -5563,7 +5577,7 @@
         <v>1394</v>
       </c>
       <c r="W77">
-        <v>622.66194999999982</v>
+        <v>623</v>
       </c>
       <c r="X77">
         <v>785</v>
@@ -5622,7 +5636,7 @@
         <v>924</v>
       </c>
       <c r="W78">
-        <v>797.37805000000003</v>
+        <v>797</v>
       </c>
       <c r="X78">
         <v>631</v>
@@ -5681,7 +5695,7 @@
         <v>2321</v>
       </c>
       <c r="W79">
-        <v>411.46424999999994</v>
+        <v>411</v>
       </c>
       <c r="X79">
         <v>1385</v>
@@ -5740,7 +5754,7 @@
         <v>1676</v>
       </c>
       <c r="W80">
-        <v>447.49999999999994</v>
+        <v>448</v>
       </c>
       <c r="X80">
         <v>1188</v>
@@ -5799,7 +5813,7 @@
         <v>2082</v>
       </c>
       <c r="W81">
-        <v>57.191000000000003</v>
+        <v>57</v>
       </c>
       <c r="X81">
         <v>1252</v>
@@ -5858,7 +5872,7 @@
         <v>2098</v>
       </c>
       <c r="W82">
-        <v>333.9375</v>
+        <v>334</v>
       </c>
       <c r="X82">
         <v>1236</v>
@@ -5917,7 +5931,7 @@
         <v>1574</v>
       </c>
       <c r="W83">
-        <v>197.62325000000004</v>
+        <v>198</v>
       </c>
       <c r="X83">
         <v>962</v>
@@ -5976,7 +5990,7 @@
         <v>946</v>
       </c>
       <c r="W84">
-        <v>89.624899999999997</v>
+        <v>90</v>
       </c>
       <c r="X84">
         <v>564</v>
@@ -6035,7 +6049,7 @@
         <v>3288</v>
       </c>
       <c r="W85">
-        <v>678.70299</v>
+        <v>679</v>
       </c>
       <c r="X85">
         <v>1677</v>
@@ -6094,7 +6108,7 @@
         <v>516</v>
       </c>
       <c r="W86">
-        <v>672.73603999999989</v>
+        <v>673</v>
       </c>
       <c r="X86">
         <v>332</v>
@@ -6153,7 +6167,7 @@
         <v>1168</v>
       </c>
       <c r="W87">
-        <v>393.92840000000001</v>
+        <v>394</v>
       </c>
       <c r="X87">
         <v>831</v>
@@ -6212,7 +6226,7 @@
         <v>437</v>
       </c>
       <c r="W88">
-        <v>545.42137000000002</v>
+        <v>545</v>
       </c>
       <c r="X88">
         <v>295</v>
@@ -6271,7 +6285,7 @@
         <v>404</v>
       </c>
       <c r="W89">
-        <v>472.73729999999989</v>
+        <v>473</v>
       </c>
       <c r="X89">
         <v>302</v>
@@ -6330,7 +6344,7 @@
         <v>544</v>
       </c>
       <c r="W90">
-        <v>536.51134000000002</v>
+        <v>537</v>
       </c>
       <c r="X90">
         <v>393</v>
@@ -6389,7 +6403,7 @@
         <v>753</v>
       </c>
       <c r="W91">
-        <v>697.02200000000016</v>
+        <v>697</v>
       </c>
       <c r="X91">
         <v>479</v>
@@ -6448,7 +6462,7 @@
         <v>1604</v>
       </c>
       <c r="W92">
-        <v>433.43750000000006</v>
+        <v>433</v>
       </c>
       <c r="X92">
         <v>860</v>
@@ -6507,7 +6521,7 @@
         <v>1380</v>
       </c>
       <c r="W93">
-        <v>312.93164000000002</v>
+        <v>313</v>
       </c>
       <c r="X93">
         <v>725</v>
@@ -6566,7 +6580,7 @@
         <v>2122</v>
       </c>
       <c r="W94">
-        <v>736.38649000000009</v>
+        <v>736</v>
       </c>
       <c r="X94">
         <v>1195</v>
@@ -6625,7 +6639,7 @@
         <v>1527</v>
       </c>
       <c r="W95">
-        <v>436.89974999999998</v>
+        <v>437</v>
       </c>
       <c r="X95">
         <v>1028</v>
@@ -6684,7 +6698,7 @@
         <v>1385</v>
       </c>
       <c r="W96">
-        <v>563.49219999999991</v>
+        <v>563</v>
       </c>
       <c r="X96">
         <v>747</v>
@@ -6743,7 +6757,7 @@
         <v>857</v>
       </c>
       <c r="W97">
-        <v>1025.4537499999999</v>
+        <v>1025</v>
       </c>
       <c r="X97">
         <v>549</v>
@@ -6802,7 +6816,7 @@
         <v>486</v>
       </c>
       <c r="W98">
-        <v>687.47225000000003</v>
+        <v>687</v>
       </c>
       <c r="X98">
         <v>282</v>
@@ -6861,7 +6875,7 @@
         <v>1914</v>
       </c>
       <c r="W99">
-        <v>503.87173000000001</v>
+        <v>504</v>
       </c>
       <c r="X99">
         <v>1374</v>
@@ -6920,7 +6934,7 @@
         <v>3189</v>
       </c>
       <c r="W100">
-        <v>765.97896999999989</v>
+        <v>766</v>
       </c>
       <c r="X100">
         <v>2207</v>
@@ -6979,7 +6993,7 @@
         <v>2158</v>
       </c>
       <c r="W101">
-        <v>134.18869000000001</v>
+        <v>134</v>
       </c>
       <c r="X101">
         <v>1307</v>
@@ -7038,7 +7052,7 @@
         <v>3747</v>
       </c>
       <c r="W102">
-        <v>564.47064999999998</v>
+        <v>564</v>
       </c>
       <c r="X102">
         <v>3262</v>
@@ -7097,7 +7111,7 @@
         <v>825</v>
       </c>
       <c r="W103">
-        <v>416.51463999999999</v>
+        <v>417</v>
       </c>
       <c r="X103">
         <v>622</v>
@@ -7156,7 +7170,7 @@
         <v>1536</v>
       </c>
       <c r="W104">
-        <v>1313.2536499999999</v>
+        <v>1313</v>
       </c>
       <c r="X104">
         <v>1028</v>
@@ -7215,7 +7229,7 @@
         <v>1333</v>
       </c>
       <c r="W105">
-        <v>797.76195000000007</v>
+        <v>798</v>
       </c>
       <c r="X105">
         <v>959</v>
@@ -7274,7 +7288,7 @@
         <v>2677</v>
       </c>
       <c r="W106">
-        <v>1264.4232499999998</v>
+        <v>1264</v>
       </c>
       <c r="X106">
         <v>1957</v>
@@ -7333,7 +7347,7 @@
         <v>1446</v>
       </c>
       <c r="W107">
-        <v>976.04037000000017</v>
+        <v>976</v>
       </c>
       <c r="X107">
         <v>1302</v>
@@ -7392,7 +7406,7 @@
         <v>447</v>
       </c>
       <c r="W108">
-        <v>513.95386999999994</v>
+        <v>514</v>
       </c>
       <c r="X108">
         <v>342</v>
@@ -7451,7 +7465,7 @@
         <v>292</v>
       </c>
       <c r="W109">
-        <v>246.36917</v>
+        <v>246</v>
       </c>
       <c r="X109">
         <v>213</v>
@@ -7510,7 +7524,7 @@
         <v>504</v>
       </c>
       <c r="W110">
-        <v>384.02099999999996</v>
+        <v>384</v>
       </c>
       <c r="X110">
         <v>412</v>
@@ -7569,7 +7583,7 @@
         <v>513</v>
       </c>
       <c r="W111">
-        <v>238.93817999999999</v>
+        <v>239</v>
       </c>
       <c r="X111">
         <v>406</v>
@@ -7628,7 +7642,7 @@
         <v>279</v>
       </c>
       <c r="W112">
-        <v>70.658619999999999</v>
+        <v>71</v>
       </c>
       <c r="X112">
         <v>186</v>
@@ -7687,7 +7701,7 @@
         <v>573</v>
       </c>
       <c r="W113">
-        <v>456.31758000000008</v>
+        <v>456</v>
       </c>
       <c r="X113">
         <v>373</v>
@@ -7746,7 +7760,7 @@
         <v>816</v>
       </c>
       <c r="W114">
-        <v>90.486470000000011</v>
+        <v>90</v>
       </c>
       <c r="X114">
         <v>595</v>
@@ -7805,7 +7819,7 @@
         <v>664</v>
       </c>
       <c r="W115">
-        <v>243.87924999999998</v>
+        <v>244</v>
       </c>
       <c r="X115">
         <v>492</v>
@@ -7864,7 +7878,7 @@
         <v>1231</v>
       </c>
       <c r="W116">
-        <v>261.9975</v>
+        <v>262</v>
       </c>
       <c r="X116">
         <v>893</v>
@@ -7923,7 +7937,7 @@
         <v>779</v>
       </c>
       <c r="W117">
-        <v>205.89894000000001</v>
+        <v>206</v>
       </c>
       <c r="X117">
         <v>454</v>
@@ -7982,7 +7996,7 @@
         <v>655</v>
       </c>
       <c r="W118">
-        <v>147.32258999999999</v>
+        <v>147</v>
       </c>
       <c r="X118">
         <v>348</v>
@@ -8041,7 +8055,7 @@
         <v>557</v>
       </c>
       <c r="W119">
-        <v>196.21725000000004</v>
+        <v>196</v>
       </c>
       <c r="X119">
         <v>356</v>
@@ -8100,7 +8114,7 @@
         <v>1165</v>
       </c>
       <c r="W120">
-        <v>443.17732000000001</v>
+        <v>443</v>
       </c>
       <c r="X120">
         <v>646</v>
@@ -8159,7 +8173,7 @@
         <v>624</v>
       </c>
       <c r="W121">
-        <v>283.96797000000004</v>
+        <v>284</v>
       </c>
       <c r="X121">
         <v>501</v>
@@ -8218,7 +8232,7 @@
         <v>2582</v>
       </c>
       <c r="W122">
-        <v>287.66545999999994</v>
+        <v>288</v>
       </c>
       <c r="X122">
         <v>1450</v>
@@ -8277,7 +8291,7 @@
         <v>1952</v>
       </c>
       <c r="W123">
-        <v>535.82575000000008</v>
+        <v>536</v>
       </c>
       <c r="X123">
         <v>1132</v>
@@ -8336,7 +8350,7 @@
         <v>1821</v>
       </c>
       <c r="W124">
-        <v>666.78366999999992</v>
+        <v>667</v>
       </c>
       <c r="X124">
         <v>790</v>
@@ -8395,7 +8409,7 @@
         <v>1287</v>
       </c>
       <c r="W125">
-        <v>658.55133999999987</v>
+        <v>659</v>
       </c>
       <c r="X125">
         <v>687</v>
@@ -8454,7 +8468,7 @@
         <v>1630</v>
       </c>
       <c r="W126">
-        <v>354.19321000000002</v>
+        <v>354</v>
       </c>
       <c r="X126">
         <v>1065</v>
@@ -8513,7 +8527,7 @@
         <v>1399</v>
       </c>
       <c r="W127">
-        <v>639.68915000000004</v>
+        <v>640</v>
       </c>
       <c r="X127">
         <v>943</v>
@@ -8572,7 +8586,7 @@
         <v>932</v>
       </c>
       <c r="W128">
-        <v>318.87309999999997</v>
+        <v>319</v>
       </c>
       <c r="X128">
         <v>532</v>
@@ -8631,7 +8645,7 @@
         <v>579</v>
       </c>
       <c r="W129">
-        <v>479.20786999999996</v>
+        <v>479</v>
       </c>
       <c r="X129">
         <v>310</v>
@@ -8690,7 +8704,7 @@
         <v>1286</v>
       </c>
       <c r="W130">
-        <v>548.20144999999991</v>
+        <v>548</v>
       </c>
       <c r="X130">
         <v>666</v>
@@ -8749,7 +8763,7 @@
         <v>1183</v>
       </c>
       <c r="W131">
-        <v>921.08803000000012</v>
+        <v>921</v>
       </c>
       <c r="X131">
         <v>658</v>
@@ -8808,7 +8822,7 @@
         <v>1537</v>
       </c>
       <c r="W132">
-        <v>849.06325000000015</v>
+        <v>849</v>
       </c>
       <c r="X132">
         <v>938</v>
@@ -8867,7 +8881,7 @@
         <v>1679</v>
       </c>
       <c r="W133">
-        <v>651.66613999999993</v>
+        <v>652</v>
       </c>
       <c r="X133">
         <v>1099</v>
@@ -8926,7 +8940,7 @@
         <v>2086</v>
       </c>
       <c r="W134">
-        <v>885.02492999999981</v>
+        <v>885</v>
       </c>
       <c r="X134">
         <v>1181</v>
@@ -8985,7 +8999,7 @@
         <v>909</v>
       </c>
       <c r="W135">
-        <v>368.22983999999997</v>
+        <v>368</v>
       </c>
       <c r="X135">
         <v>439</v>
@@ -9044,7 +9058,7 @@
         <v>1286</v>
       </c>
       <c r="W136">
-        <v>1018.1986999999998</v>
+        <v>1018</v>
       </c>
       <c r="X136">
         <v>982</v>
@@ -9103,7 +9117,7 @@
         <v>775</v>
       </c>
       <c r="W137">
-        <v>84.22975000000001</v>
+        <v>84</v>
       </c>
       <c r="X137">
         <v>675</v>
@@ -9162,7 +9176,7 @@
         <v>871</v>
       </c>
       <c r="W138">
-        <v>260.01226999999994</v>
+        <v>260</v>
       </c>
       <c r="X138">
         <v>785</v>
@@ -9221,7 +9235,7 @@
         <v>1926</v>
       </c>
       <c r="W139">
-        <v>274.82650000000001</v>
+        <v>275</v>
       </c>
       <c r="X139">
         <v>1416</v>
@@ -9280,7 +9294,7 @@
         <v>1863</v>
       </c>
       <c r="W140">
-        <v>306.54079000000007</v>
+        <v>307</v>
       </c>
       <c r="X140">
         <v>1347</v>
@@ -9339,7 +9353,7 @@
         <v>2102</v>
       </c>
       <c r="W141">
-        <v>516.35974999999996</v>
+        <v>516</v>
       </c>
       <c r="X141">
         <v>1673</v>
@@ -9398,7 +9412,7 @@
         <v>3551</v>
       </c>
       <c r="W142">
-        <v>2233.0340900000006</v>
+        <v>2233</v>
       </c>
       <c r="X142">
         <v>2116</v>
@@ -9457,7 +9471,7 @@
         <v>2514</v>
       </c>
       <c r="W143">
-        <v>1653.8622</v>
+        <v>1654</v>
       </c>
       <c r="X143">
         <v>1987</v>
@@ -9516,7 +9530,7 @@
         <v>461</v>
       </c>
       <c r="W144">
-        <v>139.91497999999999</v>
+        <v>140</v>
       </c>
       <c r="X144">
         <v>358</v>
@@ -9575,7 +9589,7 @@
         <v>2012</v>
       </c>
       <c r="W145">
-        <v>298.81398000000007</v>
+        <v>299</v>
       </c>
       <c r="X145">
         <v>1273</v>
@@ -9634,7 +9648,7 @@
         <v>224</v>
       </c>
       <c r="W146">
-        <v>70.522199999999984</v>
+        <v>71</v>
       </c>
       <c r="X146">
         <v>207</v>
@@ -9693,7 +9707,7 @@
         <v>198</v>
       </c>
       <c r="W147">
-        <v>62.390650000000008</v>
+        <v>62</v>
       </c>
       <c r="X147">
         <v>184</v>
@@ -9752,7 +9766,7 @@
         <v>154</v>
       </c>
       <c r="W148">
-        <v>28.28511</v>
+        <v>28</v>
       </c>
       <c r="X148">
         <v>146</v>
@@ -9811,7 +9825,7 @@
         <v>81</v>
       </c>
       <c r="W149">
-        <v>13.457999999999998</v>
+        <v>13</v>
       </c>
       <c r="X149">
         <v>79</v>
@@ -9870,7 +9884,7 @@
         <v>728</v>
       </c>
       <c r="W150">
-        <v>449.24088</v>
+        <v>449</v>
       </c>
       <c r="X150">
         <v>472</v>
@@ -9929,7 +9943,7 @@
         <v>323</v>
       </c>
       <c r="W151">
-        <v>118.71875999999999</v>
+        <v>119</v>
       </c>
       <c r="X151">
         <v>196</v>
@@ -9988,7 +10002,7 @@
         <v>612</v>
       </c>
       <c r="W152">
-        <v>457.63890999999995</v>
+        <v>458</v>
       </c>
       <c r="X152">
         <v>334</v>
@@ -10047,7 +10061,7 @@
         <v>846</v>
       </c>
       <c r="W153">
-        <v>271.47877999999997</v>
+        <v>271</v>
       </c>
       <c r="X153">
         <v>561</v>
@@ -10106,7 +10120,7 @@
         <v>943</v>
       </c>
       <c r="W154">
-        <v>577.58431000000007</v>
+        <v>578</v>
       </c>
       <c r="X154">
         <v>696</v>
@@ -10165,7 +10179,7 @@
         <v>430</v>
       </c>
       <c r="W155">
-        <v>409.23288000000008</v>
+        <v>409</v>
       </c>
       <c r="X155">
         <v>348</v>
@@ -10224,7 +10238,7 @@
         <v>2603</v>
       </c>
       <c r="W156">
-        <v>344.98079000000001</v>
+        <v>345</v>
       </c>
       <c r="X156">
         <v>1868</v>
@@ -10283,7 +10297,7 @@
         <v>1427</v>
       </c>
       <c r="W157">
-        <v>543.46458999999993</v>
+        <v>543</v>
       </c>
       <c r="X157">
         <v>932</v>
@@ -10342,7 +10356,7 @@
         <v>2614</v>
       </c>
       <c r="W158">
-        <v>149.09075000000001</v>
+        <v>149</v>
       </c>
       <c r="X158">
         <v>1554</v>
@@ -10401,7 +10415,7 @@
         <v>1591</v>
       </c>
       <c r="W159">
-        <v>1044.7493400000003</v>
+        <v>1045</v>
       </c>
       <c r="X159">
         <v>1026</v>
@@ -10415,10 +10429,10 @@
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C160">
         <v>235436</v>
